--- a/SchedulingData/dynamic14/pso/scheduling2_12.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,154 +462,154 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>220.1</v>
+        <v>236.52</v>
       </c>
       <c r="D2" t="n">
-        <v>279.26</v>
+        <v>309.28</v>
       </c>
       <c r="E2" t="n">
-        <v>15.584</v>
+        <v>10.712</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>250.2</v>
+        <v>220.38</v>
       </c>
       <c r="D3" t="n">
-        <v>310.2</v>
+        <v>266.44</v>
       </c>
       <c r="E3" t="n">
-        <v>10.62</v>
+        <v>12.036</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>279.26</v>
+        <v>266.44</v>
       </c>
       <c r="D4" t="n">
-        <v>334.76</v>
+        <v>312.4</v>
       </c>
       <c r="E4" t="n">
-        <v>11.164</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>213.92</v>
+        <v>212.76</v>
       </c>
       <c r="D5" t="n">
-        <v>284.68</v>
+        <v>277.66</v>
       </c>
       <c r="E5" t="n">
-        <v>15.972</v>
+        <v>15.324</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>310.2</v>
+        <v>277.66</v>
       </c>
       <c r="D6" t="n">
-        <v>377.94</v>
+        <v>321.08</v>
       </c>
       <c r="E6" t="n">
-        <v>7.916</v>
+        <v>12.112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>284.68</v>
+        <v>250.66</v>
       </c>
       <c r="D7" t="n">
-        <v>351.8</v>
+        <v>301.66</v>
       </c>
       <c r="E7" t="n">
-        <v>11.38</v>
+        <v>11.024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>226.46</v>
+        <v>309.28</v>
       </c>
       <c r="D8" t="n">
-        <v>270.84</v>
+        <v>368.6</v>
       </c>
       <c r="E8" t="n">
-        <v>13.096</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>270.84</v>
+        <v>213.56</v>
       </c>
       <c r="D9" t="n">
-        <v>332.42</v>
+        <v>251.36</v>
       </c>
       <c r="E9" t="n">
-        <v>9.568</v>
+        <v>12.084</v>
       </c>
     </row>
     <row r="10">
@@ -618,55 +618,55 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>334.76</v>
+        <v>321.08</v>
       </c>
       <c r="D10" t="n">
-        <v>394.28</v>
+        <v>380.82</v>
       </c>
       <c r="E10" t="n">
-        <v>6.852</v>
+        <v>8.247999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>351.8</v>
+        <v>368.6</v>
       </c>
       <c r="D11" t="n">
-        <v>390.5</v>
+        <v>407.26</v>
       </c>
       <c r="E11" t="n">
-        <v>9.140000000000001</v>
+        <v>3.664</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>394.28</v>
+        <v>301.66</v>
       </c>
       <c r="D12" t="n">
-        <v>441.98</v>
+        <v>361.76</v>
       </c>
       <c r="E12" t="n">
-        <v>3.212</v>
+        <v>6.644</v>
       </c>
     </row>
     <row r="13">
@@ -675,36 +675,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>441.98</v>
+        <v>380.82</v>
       </c>
       <c r="D13" t="n">
-        <v>506.98</v>
+        <v>449.72</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8120000000000001</v>
+        <v>3.488</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>506.98</v>
+        <v>251.36</v>
       </c>
       <c r="D14" t="n">
-        <v>606.66</v>
+        <v>306.88</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>9.172000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -713,112 +713,112 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>212.1</v>
+        <v>361.76</v>
       </c>
       <c r="D15" t="n">
-        <v>284.28</v>
+        <v>435.88</v>
       </c>
       <c r="E15" t="n">
-        <v>11.752</v>
+        <v>2.332</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>606.66</v>
+        <v>435.88</v>
       </c>
       <c r="D16" t="n">
-        <v>648.16</v>
+        <v>484.58</v>
       </c>
       <c r="E16" t="n">
-        <v>27.04</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>237.28</v>
+        <v>484.58</v>
       </c>
       <c r="D17" t="n">
-        <v>285.78</v>
+        <v>595.7</v>
       </c>
       <c r="E17" t="n">
-        <v>14.912</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>332.42</v>
+        <v>261.36</v>
       </c>
       <c r="D18" t="n">
-        <v>374.52</v>
+        <v>315.62</v>
       </c>
       <c r="E18" t="n">
-        <v>6.488</v>
+        <v>14.488</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>374.52</v>
+        <v>315.62</v>
       </c>
       <c r="D19" t="n">
-        <v>457.14</v>
+        <v>374.58</v>
       </c>
       <c r="E19" t="n">
-        <v>3.316</v>
+        <v>11.212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>285.78</v>
+        <v>374.58</v>
       </c>
       <c r="D20" t="n">
-        <v>336.38</v>
+        <v>438.78</v>
       </c>
       <c r="E20" t="n">
-        <v>10.992</v>
+        <v>6.412</v>
       </c>
     </row>
     <row r="21">
@@ -827,17 +827,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>336.38</v>
+        <v>306.88</v>
       </c>
       <c r="D21" t="n">
-        <v>383.88</v>
+        <v>346.84</v>
       </c>
       <c r="E21" t="n">
-        <v>8.352</v>
+        <v>6.796</v>
       </c>
     </row>
     <row r="22">
@@ -846,74 +846,74 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>377.94</v>
+        <v>407.26</v>
       </c>
       <c r="D22" t="n">
-        <v>459.6</v>
+        <v>462.16</v>
       </c>
       <c r="E22" t="n">
-        <v>5.32</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>284.28</v>
+        <v>462.16</v>
       </c>
       <c r="D23" t="n">
-        <v>337.68</v>
+        <v>533.59</v>
       </c>
       <c r="E23" t="n">
-        <v>8.032</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>383.88</v>
+        <v>449.72</v>
       </c>
       <c r="D24" t="n">
-        <v>469.74</v>
+        <v>505.66</v>
       </c>
       <c r="E24" t="n">
-        <v>4.376</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>457.14</v>
+        <v>505.66</v>
       </c>
       <c r="D25" t="n">
-        <v>512.9</v>
+        <v>597.15</v>
       </c>
       <c r="E25" t="n">
-        <v>0.34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -922,131 +922,131 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>512.9</v>
+        <v>312.4</v>
       </c>
       <c r="D26" t="n">
-        <v>608.72</v>
+        <v>376.62</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>4.748</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>390.5</v>
+        <v>346.84</v>
       </c>
       <c r="D27" t="n">
-        <v>465.14</v>
+        <v>417.5</v>
       </c>
       <c r="E27" t="n">
-        <v>5.276</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>648.16</v>
+        <v>533.59</v>
       </c>
       <c r="D28" t="n">
-        <v>698.9400000000001</v>
+        <v>582.4299999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>24.072</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>459.6</v>
+        <v>417.5</v>
       </c>
       <c r="D29" t="n">
-        <v>515.08</v>
+        <v>448.98</v>
       </c>
       <c r="E29" t="n">
-        <v>2.372</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>608.72</v>
+        <v>448.98</v>
       </c>
       <c r="D30" t="n">
-        <v>650.7</v>
+        <v>525.26</v>
       </c>
       <c r="E30" t="n">
-        <v>27.492</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>469.74</v>
+        <v>597.15</v>
       </c>
       <c r="D31" t="n">
-        <v>515.88</v>
+        <v>653.4299999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.892</v>
+        <v>27.032</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>515.88</v>
+        <v>582.4299999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>600.9</v>
+        <v>648.73</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>23.276</v>
       </c>
     </row>
     <row r="33">
@@ -1055,131 +1055,131 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>650.7</v>
+        <v>376.62</v>
       </c>
       <c r="D33" t="n">
-        <v>709.46</v>
+        <v>437.78</v>
       </c>
       <c r="E33" t="n">
-        <v>24.216</v>
+        <v>1.772</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>465.14</v>
+        <v>437.78</v>
       </c>
       <c r="D34" t="n">
-        <v>508.9</v>
+        <v>530.74</v>
       </c>
       <c r="E34" t="n">
-        <v>2.54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>508.9</v>
+        <v>530.74</v>
       </c>
       <c r="D35" t="n">
-        <v>595.52</v>
+        <v>568.7</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>595.52</v>
+        <v>648.73</v>
       </c>
       <c r="D36" t="n">
-        <v>661.24</v>
+        <v>691.97</v>
       </c>
       <c r="E36" t="n">
-        <v>27.088</v>
+        <v>20.572</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>698.9400000000001</v>
+        <v>438.78</v>
       </c>
       <c r="D37" t="n">
-        <v>748.9</v>
+        <v>478.16</v>
       </c>
       <c r="E37" t="n">
-        <v>21.696</v>
+        <v>3.604</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>600.9</v>
+        <v>595.7</v>
       </c>
       <c r="D38" t="n">
-        <v>666.0599999999999</v>
+        <v>672.9</v>
       </c>
       <c r="E38" t="n">
-        <v>27.624</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>666.0599999999999</v>
+        <v>568.7</v>
       </c>
       <c r="D39" t="n">
-        <v>714.4</v>
+        <v>645.84</v>
       </c>
       <c r="E39" t="n">
-        <v>24.92</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="40">
@@ -1188,36 +1188,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>661.24</v>
+        <v>478.16</v>
       </c>
       <c r="D40" t="n">
-        <v>704.48</v>
+        <v>539.74</v>
       </c>
       <c r="E40" t="n">
-        <v>24.384</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>714.4</v>
+        <v>539.74</v>
       </c>
       <c r="D41" t="n">
-        <v>745</v>
+        <v>636.09</v>
       </c>
       <c r="E41" t="n">
-        <v>22.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
@@ -1226,93 +1226,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>337.68</v>
+        <v>672.9</v>
       </c>
       <c r="D42" t="n">
-        <v>400.28</v>
+        <v>721.24</v>
       </c>
       <c r="E42" t="n">
-        <v>3.412</v>
+        <v>24.216</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>400.28</v>
+        <v>636.09</v>
       </c>
       <c r="D43" t="n">
-        <v>475.46</v>
+        <v>711.25</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>pond36</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>475.46</v>
-      </c>
-      <c r="D44" t="n">
-        <v>544.66</v>
-      </c>
-      <c r="E44" t="n">
-        <v>25.74</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>6</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>depot2</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>515.08</v>
-      </c>
-      <c r="D45" t="n">
-        <v>611.9400000000001</v>
-      </c>
-      <c r="E45" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>6</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>pond56</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>611.9400000000001</v>
-      </c>
-      <c r="D46" t="n">
-        <v>657.74</v>
-      </c>
-      <c r="E46" t="n">
-        <v>26.62</v>
+        <v>27.624</v>
       </c>
     </row>
   </sheetData>
